--- a/CompanyFile.xlsx
+++ b/CompanyFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6279">
   <si>
     <t>Symbol</t>
   </si>
@@ -18852,10 +18852,7 @@
     <t>$ Gained/ Lost</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Amazon</t>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -45691,10 +45688,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+      <selection activeCell="A18" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="14.5"/>
@@ -45721,7 +45718,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>2523</v>
       </c>
       <c r="B2" t="s">
         <v>6278</v>
@@ -45729,10 +45726,18 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>2525</v>
       </c>
       <c r="B3" t="s">
-        <v>6279</v>
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6278</v>
       </c>
     </row>
   </sheetData>

--- a/CompanyFile.xlsx
+++ b/CompanyFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7420" windowWidth="16900" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6295">
   <si>
     <t>Symbol</t>
   </si>
@@ -18843,6 +18843,9 @@
     <t>Cost of Ownership</t>
   </si>
   <si>
+    <t>Cost to Own</t>
+  </si>
+  <si>
     <t>Shares Owned</t>
   </si>
   <si>
@@ -18852,7 +18855,52 @@
     <t>$ Gained/ Lost</t>
   </si>
   <si>
-    <t>Gold</t>
+    <t>Day Open Price</t>
+  </si>
+  <si>
+    <t>Day Low Price</t>
+  </si>
+  <si>
+    <t>Day High Price</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>180.95</t>
+  </si>
+  <si>
+    <t>176.27</t>
+  </si>
+  <si>
+    <t>182.39</t>
+  </si>
+  <si>
+    <t>176.69</t>
+  </si>
+  <si>
+    <t>46.66</t>
+  </si>
+  <si>
+    <t>46.34</t>
+  </si>
+  <si>
+    <t>48.40</t>
+  </si>
+  <si>
+    <t>46.52</t>
+  </si>
+  <si>
+    <t>356.05</t>
+  </si>
+  <si>
+    <t>352.00</t>
+  </si>
+  <si>
+    <t>368.68</t>
+  </si>
+  <si>
+    <t>359.70</t>
   </si>
 </sst>
 </file>
@@ -45688,15 +45736,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A2:B18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>6272</v>
       </c>
@@ -45715,29 +45763,125 @@
       <c r="F1" t="s">
         <v>6277</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6279</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6281</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>2523</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>6278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>384</v>
+      </c>
+      <c r="C2" t="n">
+        <v>530.0699999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>194.36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-9.091376826507519</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-53.01000000000005</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6283</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6284</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6285</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>2525</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>6278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="C3" t="n">
+        <v>186.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.30000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26.08000000000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6287</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6288</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6289</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2989</v>
+        <v>5506</v>
       </c>
       <c r="B4" t="s">
-        <v>6278</v>
+        <v>5507</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2158.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>358.1999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6291</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6292</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6293</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6294</v>
       </c>
     </row>
   </sheetData>
@@ -45755,14 +45899,14 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>1000</v>
+        <v>17125.65</v>
       </c>
     </row>
   </sheetData>
